--- a/data/countries/jamaica.xlsx
+++ b/data/countries/jamaica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/home/BlenmanSandbox-CC1407-MEDCCC/AP 2023 Spr/data/countries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreipascu/Documents/Yale University/Years/Senior/Spring/CSEC 491/local/data/countries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB4229B-D593-7E4B-BF6E-063E20CAF77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972757FE-AFCF-DE44-8603-5DF364466F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32500" yWindow="700" windowWidth="18380" windowHeight="26460" activeTab="1" xr2:uid="{A00892F2-77B1-0143-89C4-5296CC556B66}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" activeTab="2" xr2:uid="{A00892F2-77B1-0143-89C4-5296CC556B66}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
   <si>
     <t>General</t>
   </si>
@@ -116,9 +124,6 @@
     <t>Jamaica</t>
   </si>
   <si>
-    <t>2020 (yearly and monthly)</t>
-  </si>
-  <si>
     <t>Number of international overnight tourist arrivals in Jamaica from 2000 to 2020 (in millions)</t>
   </si>
   <si>
@@ -153,6 +158,12 @@
   </si>
   <si>
     <t>https://www.statista.com/statistics/814806/jamaica-tourism-revenue</t>
+  </si>
+  <si>
+    <t>2020-2022 (yearly and monthly)</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -254,7 +265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -279,12 +290,7 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -605,7 +611,7 @@
   <dimension ref="B1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -642,7 +648,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="4">
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -673,7 +679,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -708,7 +714,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
@@ -716,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
@@ -724,7 +730,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -732,7 +738,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
@@ -740,7 +746,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -748,7 +754,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
@@ -759,7 +765,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
@@ -767,7 +773,7 @@
         <v>7</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
@@ -775,7 +781,7 @@
         <v>8</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
@@ -791,7 +797,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
@@ -799,7 +805,7 @@
         <v>13</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
@@ -810,7 +816,7 @@
         <v>6</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
@@ -826,7 +832,7 @@
         <v>8</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
@@ -834,7 +840,7 @@
         <v>9</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
@@ -842,7 +848,7 @@
         <v>11</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
@@ -850,7 +856,7 @@
         <v>13</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -865,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D00AED-5EBD-974C-A23B-D47D16AC0D47}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:D33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -881,7 +887,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>23</v>
@@ -1118,50 +1124,84 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="14"/>
+      <c r="A13" s="11">
+        <v>2021</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13">
+        <v>81093</v>
+      </c>
+      <c r="E13">
+        <v>2171</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13:F14" si="0">E13/D13</f>
+        <v>2.6771731222177006E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C14" s="19"/>
+      <c r="A14" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14">
+        <v>58838</v>
+      </c>
+      <c r="E14">
+        <v>988</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1.6791869200176758E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C15" s="18"/>
+      <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C16" s="18"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C17" s="18"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C18" s="18"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C19" s="18"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="14"/>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C20" s="18"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="14"/>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C21" s="18"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="14"/>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C22" s="18"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="14"/>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C23" s="18"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="14"/>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C24" s="18"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="14"/>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.2">
@@ -1200,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B6ADF3-96CB-6944-8E0B-4B25D12CE531}">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1209,7 +1249,7 @@
     <col min="1" max="1" width="10.83203125" style="15"/>
     <col min="2" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="21.83203125" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1217,7 +1257,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>17</v>
@@ -1242,7 +1282,7 @@
       <c r="D2" s="13">
         <v>0</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1259,7 +1299,7 @@
       <c r="D3" s="13">
         <v>0</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1276,7 +1316,7 @@
       <c r="D4" s="13">
         <v>0</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1293,7 +1333,7 @@
       <c r="D5" s="13">
         <v>0</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1310,7 +1350,7 @@
       <c r="D6" s="13">
         <v>0</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1327,7 +1367,7 @@
       <c r="D7" s="13">
         <v>0</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1344,7 +1384,7 @@
       <c r="D8" s="13">
         <v>0</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1361,7 +1401,7 @@
       <c r="D9" s="13">
         <v>0</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1378,7 +1418,7 @@
       <c r="D10" s="13">
         <v>0</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1395,7 +1435,7 @@
       <c r="D11" s="13">
         <v>0</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1412,7 +1452,7 @@
       <c r="D12" s="13">
         <v>0</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1429,7 +1469,7 @@
       <c r="D13" s="13">
         <v>0</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1446,7 +1486,7 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1463,7 +1503,7 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1480,7 +1520,7 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16">
         <f>D16/C16</f>
         <v>2.7777777777777776E-2</v>
       </c>
@@ -1498,8 +1538,8 @@
       <c r="D17">
         <v>7</v>
       </c>
-      <c r="E17" s="17">
-        <f t="shared" ref="E17:E37" si="0">D17/C17</f>
+      <c r="E17">
+        <f t="shared" ref="E17:E25" si="0">D17/C17</f>
         <v>1.8134715025906734E-2</v>
       </c>
     </row>
@@ -1516,7 +1556,7 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18">
         <f t="shared" si="0"/>
         <v>6.0975609756097563E-3</v>
       </c>
@@ -1534,7 +1574,7 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19">
         <f t="shared" si="0"/>
         <v>8.6206896551724137E-3</v>
       </c>
@@ -1552,7 +1592,7 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1570,7 +1610,7 @@
       <c r="D21">
         <v>11</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21">
         <f t="shared" si="0"/>
         <v>6.957621758380772E-3</v>
       </c>
@@ -1588,7 +1628,7 @@
       <c r="D22">
         <v>86</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22">
         <f t="shared" si="0"/>
         <v>2.1377081779766344E-2</v>
       </c>
@@ -1606,7 +1646,7 @@
       <c r="D23">
         <v>99</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23">
         <f t="shared" si="0"/>
         <v>3.7901990811638593E-2</v>
       </c>
@@ -1624,7 +1664,7 @@
       <c r="D24">
         <v>51</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24">
         <f t="shared" si="0"/>
         <v>3.0557219892150989E-2</v>
       </c>
@@ -1642,7 +1682,7 @@
       <c r="D25">
         <v>45</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25">
         <f t="shared" si="0"/>
         <v>2.1802325581395349E-2</v>
       </c>
@@ -1655,7 +1695,6 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" s="13"/>
-      <c r="E28"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" s="13"/>
@@ -1668,7 +1707,6 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B32" s="13"/>
-      <c r="E32"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B33" s="13"/>
